--- a/Base/APIOutputRunData_300_gridConnections.xlsx
+++ b/Base/APIOutputRunData_300_gridConnections.xlsx
@@ -526,77 +526,77 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
+          <t>8761</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>8760.0</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>0.224</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.409</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>300</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>1693</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>288</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
           <t>0</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>8760.0</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>1.365</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>0.226</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>300</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>1695</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>288</t>
-        </is>
-      </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="L2" t="inlineStr">
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O2" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>95.219</t>
         </is>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>49757.45</t>
         </is>
       </c>
     </row>

--- a/Base/APIOutputRunData_300_gridConnections.xlsx
+++ b/Base/APIOutputRunData_300_gridConnections.xlsx
@@ -521,12 +521,12 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>0.25</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>8761</t>
+          <t>35041</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -536,12 +536,12 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>0.224</t>
+          <t>0.573</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>1.409</t>
+          <t>15.788</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
@@ -556,7 +556,7 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>1693</t>
+          <t>1702</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -591,12 +591,12 @@
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>95.219</t>
+          <t>87.941</t>
         </is>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>49757.45</t>
+          <t>49759.031</t>
         </is>
       </c>
     </row>

--- a/Base/APIOutputRunData_300_gridConnections.xlsx
+++ b/Base/APIOutputRunData_300_gridConnections.xlsx
@@ -536,12 +536,12 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>0.573</t>
+          <t>0.78</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>15.788</t>
+          <t>7.365</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">

--- a/Base/APIOutputRunData_300_gridConnections.xlsx
+++ b/Base/APIOutputRunData_300_gridConnections.xlsx
@@ -536,12 +536,12 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>0.78</t>
+          <t>0.281</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>7.365</t>
+          <t>3.114</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
@@ -551,12 +551,12 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>300</t>
+          <t>299</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>1702</t>
+          <t>1700</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -591,12 +591,12 @@
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>87.941</t>
+          <t>87.666</t>
         </is>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>49759.031</t>
+          <t>49760.319</t>
         </is>
       </c>
     </row>
